--- a/input_data/Removal_Efficiency.xlsx
+++ b/input_data/Removal_Efficiency.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MWP-WKS050217\Desktop\RUG_Asala\PhD\Code\Reductionism\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MWP-WKS050217\Desktop\Thesis\Reductionism\microbiome_reductionism_oosterhorn_swwtp\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760"/>
   </bookViews>
   <sheets>
     <sheet name="Overall_ZAWZI_processdata" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,13 @@
     <t>P_removal</t>
   </si>
   <si>
-    <t>COD_removal</t>
-  </si>
-  <si>
     <t>N_removal</t>
   </si>
   <si>
-    <t>RE</t>
+    <t>BOD_removal</t>
+  </si>
+  <si>
+    <t>Averaged_removal_efficiency</t>
   </si>
 </sst>
 </file>
@@ -362,57 +362,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="4" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2014</v>
       </c>
       <c r="B2" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1">
-        <v>68.909762858022802</v>
+        <v>86.203675344563607</v>
       </c>
       <c r="D2" s="1">
-        <v>96.5</v>
+        <v>99.674796747967505</v>
       </c>
       <c r="E2" s="1">
-        <v>95.714285714285722</v>
+        <v>94.75</v>
       </c>
       <c r="F2" s="1">
         <f>(C2+D2+E2)/3</f>
-        <v>87.041349524102841</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>93.542824030843704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2014</v>
       </c>
@@ -423,17 +423,17 @@
         <v>97.478266814622401</v>
       </c>
       <c r="D3" s="1">
-        <v>97.700170357751304</v>
+        <v>99.537815126050404</v>
       </c>
       <c r="E3" s="1">
         <v>9.3750000000000089</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F33" si="0">(C3+D3+E3)/3</f>
-        <v>68.184479057457906</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68.797027313557592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2014</v>
       </c>
@@ -444,17 +444,17 @@
         <v>89.485025969720397</v>
       </c>
       <c r="D4" s="1">
-        <v>91.4583333333333</v>
+        <v>96.320754716981099</v>
       </c>
       <c r="E4" s="1">
         <v>17.647058823529417</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>66.196806042194368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>67.817613170076967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2015</v>
       </c>
@@ -465,17 +465,17 @@
         <v>89.426511941067005</v>
       </c>
       <c r="D5" s="1">
-        <v>94.1666666666667</v>
+        <v>99.170731707317103</v>
       </c>
       <c r="E5" s="1">
         <v>89.130434782608688</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>90.907871130114131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>92.575892810330927</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2015</v>
       </c>
@@ -486,17 +486,17 @@
         <v>90.929835854521997</v>
       </c>
       <c r="D6" s="1">
-        <v>95.367965367965397</v>
+        <v>99.106382978723403</v>
       </c>
       <c r="E6" s="1">
         <v>90.666666666666657</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>92.321489296384698</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>93.567628499970695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2015</v>
       </c>
@@ -507,17 +507,17 @@
         <v>95.8314911575563</v>
       </c>
       <c r="D7" s="1">
-        <v>94.123711340206199</v>
+        <v>98.3333333333333</v>
       </c>
       <c r="E7" s="1">
         <v>92.571428571428584</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>94.175543689730375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95.578751020772714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2015</v>
       </c>
@@ -528,17 +528,17 @@
         <v>78.266690682036497</v>
       </c>
       <c r="D8" s="1">
-        <v>92.668250197941404</v>
+        <v>99.027027027027003</v>
       </c>
       <c r="E8" s="1">
         <v>59.574468085106389</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>76.836469655028097</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>78.956061931389968</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2015</v>
       </c>
@@ -549,17 +549,17 @@
         <v>96.243044656869799</v>
       </c>
       <c r="D9" s="1">
-        <v>95.269607843137294</v>
+        <v>99.280575539568304</v>
       </c>
       <c r="E9" s="1">
         <v>83.703703703703695</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>91.738785401236939</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>93.075774633380604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2015</v>
       </c>
@@ -570,17 +570,17 @@
         <v>84.288222670221799</v>
       </c>
       <c r="D10" s="1">
-        <v>86.563573883161496</v>
+        <v>95.923076923076906</v>
       </c>
       <c r="E10" s="1">
         <v>63.157894736842103</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>78.003230430075135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>81.123064776713605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2015</v>
       </c>
@@ -591,17 +591,17 @@
         <v>98.114716981132105</v>
       </c>
       <c r="D11" s="1">
-        <v>95</v>
+        <v>98.933333333333294</v>
       </c>
       <c r="E11" s="1">
         <v>73.030303030303017</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>88.715006670478374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>90.026117781589463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>2015</v>
       </c>
@@ -612,17 +612,17 @@
         <v>86.551724137931004</v>
       </c>
       <c r="D12" s="1">
-        <v>94.807692307692307</v>
+        <v>98.787878787878796</v>
       </c>
       <c r="E12" s="1">
         <v>73.333333333333343</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>84.897583259652222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>86.224312086381062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2015</v>
       </c>
@@ -633,38 +633,38 @@
         <v>86.198619861986202</v>
       </c>
       <c r="D13" s="1">
-        <v>93.319672131147499</v>
+        <v>97.786885245901601</v>
       </c>
       <c r="E13" s="1">
         <v>61.764705882352935</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>80.427665958495538</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>81.916736996746906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>2015</v>
       </c>
       <c r="B14" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1">
-        <v>96.203599550056197</v>
+        <v>95.950865970261006</v>
       </c>
       <c r="D14" s="1">
-        <v>97.438016528925601</v>
+        <v>98.365384615384599</v>
       </c>
       <c r="E14" s="1">
-        <v>85.18518518518519</v>
+        <v>82.857142857142861</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>92.942267088055658</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>92.391131147596141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2015</v>
       </c>
@@ -675,17 +675,17 @@
         <v>67.117377808175902</v>
       </c>
       <c r="D15" s="1">
-        <v>94.359605911330107</v>
+        <v>98.7735849056604</v>
       </c>
       <c r="E15" s="1">
         <v>63.967611336032384</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>75.148198351846119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>76.619524683289555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2015</v>
       </c>
@@ -696,38 +696,38 @@
         <v>69.475977775356796</v>
       </c>
       <c r="D16" s="1">
-        <v>91.463414634146304</v>
+        <v>97.619047619047606</v>
       </c>
       <c r="E16" s="1">
         <v>60.833333333333343</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>73.924241914278824</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>75.976119575912577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2015</v>
       </c>
       <c r="B17" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1">
-        <v>93.093311758360301</v>
+        <v>90.560500105954702</v>
       </c>
       <c r="D17" s="1">
-        <v>93.543307086614206</v>
+        <v>97.7777777777778</v>
       </c>
       <c r="E17" s="1">
-        <v>95.833333333333343</v>
+        <v>93.363636363636374</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>94.156650726102612</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>93.900638082456297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2015</v>
       </c>
@@ -738,17 +738,17 @@
         <v>91.802122470502894</v>
       </c>
       <c r="D18" s="1">
-        <v>95.790697674418595</v>
+        <v>98.807692307692307</v>
       </c>
       <c r="E18" s="1">
         <v>97.612244897959187</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>95.068355014293559</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96.074019892051453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2016</v>
       </c>
@@ -759,17 +759,17 @@
         <v>76.207587530543705</v>
       </c>
       <c r="D19" s="1">
-        <v>80.960130187144003</v>
+        <v>96.381106503489406</v>
       </c>
       <c r="E19" s="1">
-        <v>100</v>
+        <v>100.59171597633136</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>85.722572572562569</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>91.06013667012148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
@@ -780,17 +780,17 @@
         <v>80.666093095435301</v>
       </c>
       <c r="D20" s="1">
-        <v>92.571428571428598</v>
+        <v>98.913610207892901</v>
       </c>
       <c r="E20" s="1">
         <v>100</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>91.079173888954642</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>93.193234434442729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2016</v>
       </c>
@@ -801,17 +801,17 @@
         <v>81.541603274650399</v>
       </c>
       <c r="D21" s="1">
-        <v>83.933161953727506</v>
+        <v>95.155237563464993</v>
       </c>
       <c r="E21" s="1">
         <v>90.344827586206904</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>85.273197604861608</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>89.013889474774103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2016</v>
       </c>
@@ -822,17 +822,17 @@
         <v>54.913345329244002</v>
       </c>
       <c r="D22" s="1">
-        <v>92.437192437192394</v>
+        <v>98.931141905682694</v>
       </c>
       <c r="E22" s="1">
         <v>37.116104868913851</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>61.488880878450082</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>63.653530701280182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2016</v>
       </c>
@@ -843,17 +843,17 @@
         <v>67.735488189729395</v>
       </c>
       <c r="D23" s="1">
-        <v>92.561293688054306</v>
+        <v>99.021799468891103</v>
       </c>
       <c r="E23" s="1">
         <v>78.684210526315795</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>79.660330801366499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>81.813832728312093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2016</v>
       </c>
@@ -864,17 +864,17 @@
         <v>33.341888582903799</v>
       </c>
       <c r="D24" s="1">
-        <v>94.644808743169406</v>
+        <v>98.945094299227307</v>
       </c>
       <c r="E24" s="1">
         <v>98.46473029045643</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>75.483809205509871</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>76.917237724195843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2016</v>
       </c>
@@ -885,17 +885,17 @@
         <v>63.671390611160298</v>
       </c>
       <c r="D25" s="1">
-        <v>90.454545454545496</v>
+        <v>97.264705882352899</v>
       </c>
       <c r="E25" s="1">
         <v>100</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>84.708645355235262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>86.978698831171073</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2016</v>
       </c>
@@ -906,17 +906,17 @@
         <v>96.640112464854695</v>
       </c>
       <c r="D26" s="1">
-        <v>97</v>
+        <v>99.4930555555556</v>
       </c>
       <c r="E26" s="1">
         <v>71.458333333333329</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>88.366148599396013</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>89.197167117914546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2016</v>
       </c>
@@ -927,17 +927,17 @@
         <v>98.311111111111103</v>
       </c>
       <c r="D27" s="1">
-        <v>100</v>
+        <v>99.460317460317498</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>66.103703703703701</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>65.923809523809538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2016</v>
       </c>
@@ -948,17 +948,17 @@
         <v>97.6656626506024</v>
       </c>
       <c r="D28" s="1">
-        <v>100</v>
+        <v>99.723214285714306</v>
       </c>
       <c r="E28" s="1">
         <v>69.642857142857139</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>89.102839931153184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>89.010578026391272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>2016</v>
       </c>
@@ -969,17 +969,17 @@
         <v>43.594164456233401</v>
       </c>
       <c r="D29" s="1">
-        <v>98.017857142857096</v>
+        <v>99.643564356435604</v>
       </c>
       <c r="E29" s="1">
         <v>26.190476190476193</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>55.934165929855567</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>56.476068334381729</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>2016</v>
       </c>
@@ -990,17 +990,17 @@
         <v>92.363802142694297</v>
       </c>
       <c r="D30" s="1">
-        <v>94.761904761904802</v>
+        <v>99.204301075268802</v>
       </c>
       <c r="E30" s="1">
         <v>62.631578947368418</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>83.252428617322508</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>84.733227388443837</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2016</v>
       </c>
@@ -1011,17 +1011,17 @@
         <v>93.422003758854999</v>
       </c>
       <c r="D31" s="1">
-        <v>92.5</v>
+        <v>98.841666666666697</v>
       </c>
       <c r="E31" s="1">
         <v>59.285714285714285</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
-        <v>81.735906014856425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>83.84979490374532</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2016</v>
       </c>
@@ -1032,17 +1032,17 @@
         <v>94.551282051282001</v>
       </c>
       <c r="D32" s="1">
-        <v>95.857142857142804</v>
+        <v>98.597560975609795</v>
       </c>
       <c r="E32" s="1">
         <v>85.727272727272734</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
-        <v>92.045232545232523</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>92.958705251388167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2017</v>
       </c>
@@ -1053,14 +1053,14 @@
         <v>97.258170651458698</v>
       </c>
       <c r="D33" s="1">
-        <v>94.783783783783804</v>
+        <v>98.580645161290306</v>
       </c>
       <c r="E33" s="1">
         <v>100</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
-        <v>97.34731814508082</v>
+        <v>98.612938604249663</v>
       </c>
     </row>
   </sheetData>
